--- a/DOCUMENTS-20221017T082336Z-001/DOCUMENTS/Données Thèse/typologie 5 groupes.xlsx
+++ b/DOCUMENTS-20221017T082336Z-001/DOCUMENTS/Données Thèse/typologie 5 groupes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrien\Documents\SAADS\RESAD\Stage RESAD\Stage GEAU\Traitement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPAGRO\Desktop\project\DOCUMENTS-20221017T082336Z-001\DOCUMENTS\Données Thèse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD74559B-21FE-4A81-A720-3360FBEC1D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="groupe 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="groupe 5" sheetId="5" r:id="rId5"/>
     <sheet name="Feuil1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -461,7 +460,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -615,7 +614,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -801,6 +800,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -962,13 +979,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1024,7 +1047,150 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1038,7 +1204,37 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1057,7 +1253,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1070,7 +1265,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1083,7 +1277,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1096,7 +1289,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1109,7 +1301,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1122,7 +1313,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1135,7 +1325,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1148,7 +1337,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1161,7 +1349,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1174,7 +1361,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1187,7 +1373,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1200,7 +1385,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1213,40 +1397,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1259,7 +1409,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1272,7 +1421,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1285,7 +1433,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1298,7 +1445,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1311,7 +1457,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1324,7 +1469,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1337,7 +1481,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1350,7 +1493,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1363,7 +1505,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1376,7 +1517,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1389,7 +1529,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1402,7 +1541,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1415,7 +1553,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1428,7 +1565,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1441,7 +1577,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1454,7 +1589,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1467,7 +1601,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1480,7 +1613,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1493,7 +1625,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1506,7 +1637,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1519,7 +1649,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1532,7 +1661,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1545,7 +1673,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1558,7 +1685,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1571,7 +1697,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1584,7 +1709,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1597,7 +1721,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1610,7 +1733,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1623,7 +1745,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1636,7 +1757,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1649,7 +1769,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1662,7 +1781,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1675,7 +1793,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1688,7 +1805,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1701,7 +1817,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1714,7 +1829,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1727,7 +1841,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1740,7 +1853,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1753,7 +1865,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1766,7 +1877,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1779,7 +1889,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1792,7 +1901,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1805,7 +1913,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1818,7 +1925,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1831,7 +1937,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1844,7 +1949,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1857,7 +1961,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1870,7 +1973,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1883,7 +1985,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1896,7 +1997,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1909,163 +2009,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -2600,6 +2543,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2607,7 +2551,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3068,6 +3011,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3075,7 +3019,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3560,6 +3503,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3567,7 +3511,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4028,6 +3971,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4035,7 +3979,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4484,6 +4427,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4491,7 +4435,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7447,306 +7390,306 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{343F1C9B-3F1F-43E0-9593-1A4A5C90B6B6}" name="Tableau1" displayName="Tableau1" ref="A1:N11" totalsRowShown="0">
-  <autoFilter ref="A1:N11" xr:uid="{73BB29D2-4015-422D-8AF5-3106EF4890ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:N11" totalsRowShown="0">
+  <autoFilter ref="A1:N11"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{52489F91-88D0-4087-8C54-F7EEDB7ACA10}" name="Colonne1"/>
-    <tableColumn id="2" xr3:uid="{7709A7A0-AE13-4EC7-8A6C-8699D3FEA21B}" name="IR_freq"/>
-    <tableColumn id="3" xr3:uid="{BC16A1A0-0D34-4BC4-B3CD-884EE7083631}" name="IR_depth"/>
-    <tableColumn id="4" xr3:uid="{5DE95B34-3D51-4393-89D3-88957A170609}" name="IR_return"/>
-    <tableColumn id="5" xr3:uid="{4FB57314-C803-4CA2-8E98-1343DDDDDD11}" name="R_Wsol"/>
-    <tableColumn id="6" xr3:uid="{10CACD04-E9BC-4F6E-87E6-89A97C863DAF}" name="Herb_IR"/>
-    <tableColumn id="7" xr3:uid="{14EB861C-5049-4B52-B48F-DAB10BA3447E}" name="AM_type"/>
-    <tableColumn id="8" xr3:uid="{E63309A4-9ACC-4A25-B4EF-33613A91FD78}" name="ENG_type"/>
-    <tableColumn id="9" xr3:uid="{1691F49D-9D3E-4A21-9118-8D5E683BCCB5}" name="Ditch_state"/>
-    <tableColumn id="10" xr3:uid="{32080862-295B-40EB-9558-BC357815F0B0}" name="Sub_origin"/>
-    <tableColumn id="11" xr3:uid="{4867A16B-88B2-443A-A5BF-4F1F03989FDE}" name="Sub_cumul_mm"/>
-    <tableColumn id="12" xr3:uid="{BB7626AE-67E9-425E-86DF-17D189093685}" name="Drain"/>
-    <tableColumn id="13" xr3:uid="{E7A2EE0D-AB2F-4370-96E2-76539EF847A9}" name="other_irrig"/>
-    <tableColumn id="14" xr3:uid="{F116B309-1A92-431C-9F28-9912282A4F74}" name="prepa_sol"/>
+    <tableColumn id="1" name="Colonne1"/>
+    <tableColumn id="2" name="IR_freq"/>
+    <tableColumn id="3" name="IR_depth"/>
+    <tableColumn id="4" name="IR_return"/>
+    <tableColumn id="5" name="R_Wsol"/>
+    <tableColumn id="6" name="Herb_IR"/>
+    <tableColumn id="7" name="AM_type"/>
+    <tableColumn id="8" name="ENG_type"/>
+    <tableColumn id="9" name="Ditch_state"/>
+    <tableColumn id="10" name="Sub_origin"/>
+    <tableColumn id="11" name="Sub_cumul_mm"/>
+    <tableColumn id="12" name="Drain"/>
+    <tableColumn id="13" name="other_irrig"/>
+    <tableColumn id="14" name="prepa_sol"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A4BDB991-0358-493D-BEB7-1613E584333D}" name="Tableau10" displayName="Tableau10" ref="A9:F18" totalsRowShown="0">
-  <autoFilter ref="A9:F18" xr:uid="{1C15C644-A883-47F9-8AEE-249A64608BE5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tableau10" displayName="Tableau10" ref="A9:F18" totalsRowShown="0">
+  <autoFilter ref="A9:F18"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E98F827C-BCB0-4E66-8CEE-CD0D1B18E2B5}" name="Modalités signif."/>
-    <tableColumn id="2" xr3:uid="{5EE07F3E-EAAC-4514-8C6B-28D41F9D7514}" name="Cla/Mod" dataDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{044C3764-AF28-4F75-8F02-3640D1B7DBAC}" name="Mod/Cla" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{3CB253DC-BD10-4727-A12A-0A793C272D57}" name="Global" dataDxfId="82"/>
-    <tableColumn id="5" xr3:uid="{112F683C-9A3C-4281-8517-0C52EC447B67}" name="p.value" dataDxfId="81"/>
-    <tableColumn id="6" xr3:uid="{2FD2EC24-561D-434E-B1B0-5492575424E2}" name="v.test" dataDxfId="80"/>
+    <tableColumn id="1" name="Modalités signif."/>
+    <tableColumn id="2" name="Cla/Mod" dataDxfId="84"/>
+    <tableColumn id="3" name="Mod/Cla" dataDxfId="83"/>
+    <tableColumn id="4" name="Global" dataDxfId="82"/>
+    <tableColumn id="5" name="p.value" dataDxfId="81"/>
+    <tableColumn id="6" name="v.test" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B0716313-F380-48AE-88E1-25C34B5C7884}" name="Tableau112" displayName="Tableau112" ref="A1:N11" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
-  <autoFilter ref="A1:N11" xr:uid="{BAEFE677-3A86-4A81-BCEF-95C2F53C3B4E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tableau112" displayName="Tableau112" ref="A1:N11" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+  <autoFilter ref="A1:N11"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{74872679-CD86-4A4D-9F2E-F00D11EA278B}" name="GROUPE 1" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{AB593EFB-61E9-435F-9873-0A96151021B5}" name="IR_freq" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{4E96E498-161B-4E7E-814E-83E2043D6B18}" name="IR_depth" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{787EA96B-AF82-46D6-835A-B5FE796471AA}" name="IR_return" dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{60CF2805-5D8E-4FD0-93CD-1D4925C6B7BE}" name="R_Wsol" dataDxfId="75"/>
-    <tableColumn id="6" xr3:uid="{10147B14-5F08-4A97-A8E7-9241260A6E14}" name="Herb_IR" dataDxfId="74"/>
-    <tableColumn id="7" xr3:uid="{90F2C52A-A95B-451A-8C16-8E26765D9927}" name="AM_type" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{C48F611F-DDED-4187-A922-3A81089CB85D}" name="ENG_type" dataDxfId="72"/>
-    <tableColumn id="9" xr3:uid="{B39DC611-2B99-45C9-9422-93430AE04B29}" name="Ditch_state" dataDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{D913EA4D-FF3D-458A-BCBA-864DB4ED1B6B}" name="Sub_origin" dataDxfId="70"/>
-    <tableColumn id="11" xr3:uid="{7C725BB3-6007-4CAB-9D87-989A69CB8F1D}" name="Sub_cumul_mm" dataDxfId="69"/>
-    <tableColumn id="12" xr3:uid="{216663C9-B862-407E-BFF4-54BA5AE20AF5}" name="Drain" dataDxfId="68"/>
-    <tableColumn id="13" xr3:uid="{686B7560-39A8-4D2D-9557-325973D72EF4}" name="other_irrig" dataDxfId="67"/>
-    <tableColumn id="14" xr3:uid="{E0713AD9-51E3-4DC0-9956-62507B88E4FC}" name="prepa_sol" dataDxfId="66"/>
+    <tableColumn id="1" name="GROUPE 1" dataDxfId="77"/>
+    <tableColumn id="2" name="IR_freq" dataDxfId="76"/>
+    <tableColumn id="3" name="IR_depth" dataDxfId="75"/>
+    <tableColumn id="4" name="IR_return" dataDxfId="74"/>
+    <tableColumn id="5" name="R_Wsol" dataDxfId="73"/>
+    <tableColumn id="6" name="Herb_IR" dataDxfId="72"/>
+    <tableColumn id="7" name="AM_type" dataDxfId="71"/>
+    <tableColumn id="8" name="ENG_type" dataDxfId="70"/>
+    <tableColumn id="9" name="Ditch_state" dataDxfId="69"/>
+    <tableColumn id="10" name="Sub_origin" dataDxfId="68"/>
+    <tableColumn id="11" name="Sub_cumul_mm" dataDxfId="67"/>
+    <tableColumn id="12" name="Drain" dataDxfId="66"/>
+    <tableColumn id="13" name="other_irrig" dataDxfId="65"/>
+    <tableColumn id="14" name="prepa_sol" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{9632F3CD-E2C2-4376-9945-F8D5A877D02D}" name="Tableau313" displayName="Tableau313" ref="A12:N21" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
-  <autoFilter ref="A12:N21" xr:uid="{0FFA2384-8EE7-4E95-9DAA-3A53AC611657}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tableau313" displayName="Tableau313" ref="A12:N21" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A12:N21"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{61D93F0D-7F11-43B1-A2F0-209C0E0D9D93}" name="GROUPE 2" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{7B3084B5-A893-46C3-B91B-F354AFC1ED45}" name="IR_freq" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{52572103-0B4F-46B5-8F91-5D952B379C50}" name="IR_depth" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{5944F8C0-DFA4-436C-8C52-45ACBAFC6120}" name="IR_return" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{F1A9B841-F550-483C-AA73-8EACF1CA7DA0}" name="R_Wsol" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{ADAF791B-C51C-4B84-962B-261B75C69BCE}" name="Herb_IR" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{A4951C1F-C2A4-4399-872C-28C50B63D8A8}" name="AM_type" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{E7DD08AD-4568-44AD-A371-15BBD2C7FB21}" name="ENG_type" dataDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{EF72CC72-B2F4-4580-AFF0-C5B8B40FC59D}" name="Ditch_state" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{37367E59-E6ED-4ABE-9289-805B818F67A4}" name="Sub_origin" dataDxfId="54"/>
-    <tableColumn id="11" xr3:uid="{B2442BE2-13AA-4193-9D21-799FF3697914}" name="Sub_cumul_mm" dataDxfId="53"/>
-    <tableColumn id="12" xr3:uid="{C32EF753-7113-485B-94B5-4FB4A2E14BB4}" name="Drain" dataDxfId="52"/>
-    <tableColumn id="13" xr3:uid="{9D777B7C-2997-4923-A5BC-20688E80569F}" name="other_irrig" dataDxfId="51"/>
-    <tableColumn id="14" xr3:uid="{FAD6A5C2-B190-40BF-A344-9BC09D02253F}" name="prepa_sol" dataDxfId="50"/>
+    <tableColumn id="1" name="GROUPE 2" dataDxfId="61"/>
+    <tableColumn id="2" name="IR_freq" dataDxfId="60"/>
+    <tableColumn id="3" name="IR_depth" dataDxfId="59"/>
+    <tableColumn id="4" name="IR_return" dataDxfId="58"/>
+    <tableColumn id="5" name="R_Wsol" dataDxfId="57"/>
+    <tableColumn id="6" name="Herb_IR" dataDxfId="56"/>
+    <tableColumn id="7" name="AM_type" dataDxfId="55"/>
+    <tableColumn id="8" name="ENG_type" dataDxfId="54"/>
+    <tableColumn id="9" name="Ditch_state" dataDxfId="53"/>
+    <tableColumn id="10" name="Sub_origin" dataDxfId="52"/>
+    <tableColumn id="11" name="Sub_cumul_mm" dataDxfId="51"/>
+    <tableColumn id="12" name="Drain" dataDxfId="50"/>
+    <tableColumn id="13" name="other_irrig" dataDxfId="49"/>
+    <tableColumn id="14" name="prepa_sol" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{9968CBB4-4A4D-4625-9AC1-3204F3F66838}" name="Tableau514" displayName="Tableau514" ref="A22:N34" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A22:N34" xr:uid="{FCE084E1-0FDC-4151-B249-89E3D6CCF1C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tableau514" displayName="Tableau514" ref="A22:N34" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="A22:N34"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{833561E2-7509-40C3-A7CF-48A00296B4DC}" name="GROUPE 3" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{80E1B2E5-859C-4215-ABCD-B59BD5882E48}" name="IR_freq" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{557FF2A7-8E01-4253-B6BD-D7BE3ED3559F}" name="IR_depth" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{EFD3705C-AE78-401B-AD15-904F1D6F972B}" name="IR_return" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{FA2C0CE1-4254-45BE-894B-603583BF06DC}" name="R_Wsol" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{DC35A883-9B86-4AE6-86C8-74373CBFCF5B}" name="Herb_IR" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{BCBCE010-9F8D-4A66-8A8D-631EE3AB9F80}" name="AM_type" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{F0E66086-B4BA-424C-95BB-B934A38BD91B}" name="ENG_type" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{8379F2AC-CA3F-495A-9E2B-E764BCAE6031}" name="Ditch_state" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{1DB023FC-3DF2-43E6-825E-A21561DDAE7D}" name="Sub_origin" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{844F0B9D-79EA-44BC-8B46-CC8A80D5E363}" name="Sub_cumul_mm" dataDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{E9E764A5-9206-4F21-ABCC-27C5B11F7B46}" name="Drain" dataDxfId="36"/>
-    <tableColumn id="13" xr3:uid="{464C4783-7172-4227-B916-A218CD9E57FC}" name="other_irrig" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{E5DA0909-4878-41E2-9D0B-6289BAD49A61}" name="prepa_sol" dataDxfId="34"/>
+    <tableColumn id="1" name="GROUPE 3" dataDxfId="45"/>
+    <tableColumn id="2" name="IR_freq" dataDxfId="44"/>
+    <tableColumn id="3" name="IR_depth" dataDxfId="43"/>
+    <tableColumn id="4" name="IR_return" dataDxfId="42"/>
+    <tableColumn id="5" name="R_Wsol" dataDxfId="41"/>
+    <tableColumn id="6" name="Herb_IR" dataDxfId="40"/>
+    <tableColumn id="7" name="AM_type" dataDxfId="39"/>
+    <tableColumn id="8" name="ENG_type" dataDxfId="38"/>
+    <tableColumn id="9" name="Ditch_state" dataDxfId="37"/>
+    <tableColumn id="10" name="Sub_origin" dataDxfId="36"/>
+    <tableColumn id="11" name="Sub_cumul_mm" dataDxfId="35"/>
+    <tableColumn id="12" name="Drain" dataDxfId="34"/>
+    <tableColumn id="13" name="other_irrig" dataDxfId="33"/>
+    <tableColumn id="14" name="prepa_sol" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{40EE58DC-E47F-4994-AC0E-60EE2DAF202D}" name="Tableau715" displayName="Tableau715" ref="A35:N45" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A35:N45" xr:uid="{B43E4172-8280-49F0-A7A6-FDE3DFB7B135}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tableau715" displayName="Tableau715" ref="A35:N45" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A35:N45"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{519FFF88-742A-4CCC-8F1F-93EAA0514E4D}" name="GROUPE 4" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{91A71C90-8BA0-4570-8846-43E9F7668FE2}" name="IR_freq" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{EF553285-CCCA-4006-BCC6-276162171D3A}" name="IR_depth" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{76F561DE-93A1-4127-8F4A-E1ECFD9B4417}" name="IR_return" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{16D8646D-EC24-4914-B52E-4AA785E39C37}" name="R_Wsol" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{C8F9251C-F7E3-48E4-A56D-3F5D99031B2E}" name="Herb_IR" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{45694E24-F75E-4AD6-B795-0F3E0F62A346}" name="AM_type" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{BE0162C0-AA66-46A6-B403-DA181447614E}" name="ENG_type" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{6C7D0121-6E90-4E13-BE78-057F48BE3E3C}" name="Ditch_state" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{D1DA97AA-4170-4E72-B52A-4CD23337B5B8}" name="Sub_origin" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{01695254-969E-409F-9BD6-9BCA7869F865}" name="Sub_cumul_mm" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{84714D69-D3AD-48A9-9717-73339BEBE6AC}" name="Drain" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{D574A3A8-8A0C-40C2-9E32-2181D465B938}" name="other_irrig" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{64AD2824-5002-468C-B730-543DB62B98F9}" name="prepa_sol" dataDxfId="18"/>
+    <tableColumn id="1" name="GROUPE 4" dataDxfId="29"/>
+    <tableColumn id="2" name="IR_freq" dataDxfId="28"/>
+    <tableColumn id="3" name="IR_depth" dataDxfId="27"/>
+    <tableColumn id="4" name="IR_return" dataDxfId="26"/>
+    <tableColumn id="5" name="R_Wsol" dataDxfId="25"/>
+    <tableColumn id="6" name="Herb_IR" dataDxfId="24"/>
+    <tableColumn id="7" name="AM_type" dataDxfId="23"/>
+    <tableColumn id="8" name="ENG_type" dataDxfId="22"/>
+    <tableColumn id="9" name="Ditch_state" dataDxfId="21"/>
+    <tableColumn id="10" name="Sub_origin" dataDxfId="20"/>
+    <tableColumn id="11" name="Sub_cumul_mm" dataDxfId="19"/>
+    <tableColumn id="12" name="Drain" dataDxfId="18"/>
+    <tableColumn id="13" name="other_irrig" dataDxfId="17"/>
+    <tableColumn id="14" name="prepa_sol" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A300AE61-2F83-4BAB-9B4D-3DFA722006B0}" name="Tableau916" displayName="Tableau916" ref="A46:N50" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A46:N50" xr:uid="{A0A98376-7336-4911-BF2D-3A6FF4E0ADFF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tableau916" displayName="Tableau916" ref="A46:N50" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A46:N50"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{0FFD7919-86F9-4C32-A449-0F3A3670CC6E}" name="GROUPE 5" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{41397CA6-C7BC-4425-B3C7-B475E843FF6A}" name="IR_freq" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{58837316-BC86-446F-A81E-A6E6CCA97AE1}" name="IR_depth" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{0B783216-452E-4364-A00A-DD79A459BD22}" name="IR_return" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{44B29799-8751-442A-98FD-099F493E1EB4}" name="R_Wsol" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{F38AE5E2-5D3C-4D18-9EB3-5CA7F43490EB}" name="Herb_IR" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{1112C74B-840B-41A8-B4B3-D3351ED017FB}" name="AM_type" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{82EC1D17-398F-457A-8ED0-1C9C0D815F6B}" name="ENG_type" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{47825CE8-F583-4B38-9E71-E9F887D42A13}" name="Ditch_state" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{FB78DA7A-435E-4F21-92C3-94C6A8F6AA68}" name="Sub_origin" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{59B986CA-CCFA-421C-A1FE-44A14CC2F6CF}" name="Sub_cumul_mm" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{E8F87D0E-6D01-41DB-B968-96FD1766EEAC}" name="Drain" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{BDC4B67F-61E4-451B-8309-B877F292A289}" name="other_irrig" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{0ABE2653-41A9-4156-9D72-C9D9B337114D}" name="prepa_sol" dataDxfId="2"/>
+    <tableColumn id="1" name="GROUPE 5" dataDxfId="13"/>
+    <tableColumn id="2" name="IR_freq" dataDxfId="12"/>
+    <tableColumn id="4" name="IR_depth" dataDxfId="11"/>
+    <tableColumn id="5" name="IR_return" dataDxfId="10"/>
+    <tableColumn id="6" name="R_Wsol" dataDxfId="9"/>
+    <tableColumn id="7" name="Herb_IR" dataDxfId="8"/>
+    <tableColumn id="8" name="AM_type" dataDxfId="7"/>
+    <tableColumn id="9" name="ENG_type" dataDxfId="6"/>
+    <tableColumn id="10" name="Ditch_state" dataDxfId="5"/>
+    <tableColumn id="11" name="Sub_origin" dataDxfId="4"/>
+    <tableColumn id="12" name="Sub_cumul_mm" dataDxfId="3"/>
+    <tableColumn id="13" name="Drain" dataDxfId="2"/>
+    <tableColumn id="14" name="other_irrig" dataDxfId="1"/>
+    <tableColumn id="15" name="prepa_sol" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7E4E3BCE-B737-4BE1-A686-85916C633EEA}" name="Tableau2" displayName="Tableau2" ref="A14:F25" totalsRowShown="0">
-  <autoFilter ref="A14:F25" xr:uid="{D786DFF9-619A-45BA-8124-3BF1E11BF63C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A14:F25" totalsRowShown="0">
+  <autoFilter ref="A14:F25"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4C05A7FA-30CF-4CDB-8FF7-CE013C70DB61}" name="Modalités signif."/>
-    <tableColumn id="2" xr3:uid="{A18A4E41-DC9A-4E82-A488-0D26CA8B5680}" name="Cla/Mod" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{399A6869-10CF-4ABD-B46D-FC6B34A48100}" name="Mod/Cla" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{3EC715BF-8745-4382-83D7-EF83306F0B74}" name="Global" dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{CDA538C3-59F9-473C-A946-A54E9706229F}" name="p.value" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{1BAEA8D2-6711-4E5D-AAF3-C5D85C4118AA}" name="v.test" dataDxfId="100"/>
+    <tableColumn id="1" name="Modalités signif."/>
+    <tableColumn id="2" name="Cla/Mod" dataDxfId="104"/>
+    <tableColumn id="3" name="Mod/Cla" dataDxfId="103"/>
+    <tableColumn id="4" name="Global" dataDxfId="102"/>
+    <tableColumn id="5" name="p.value" dataDxfId="101"/>
+    <tableColumn id="6" name="v.test" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7C3CA64F-0E96-42AE-8AF3-5F4133F38686}" name="Tableau3" displayName="Tableau3" ref="A1:N10" totalsRowShown="0">
-  <autoFilter ref="A1:N10" xr:uid="{DAAA76E8-61B5-430F-A11D-CE44025E7EC6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:N10" totalsRowShown="0">
+  <autoFilter ref="A1:N10"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{2E081C2F-DFB7-49E5-8B05-98789A059394}" name="Colonne1"/>
-    <tableColumn id="2" xr3:uid="{A542F136-79EC-4020-8309-0E76658CD513}" name="IR_freq"/>
-    <tableColumn id="3" xr3:uid="{5616ECFD-987C-4F53-9C78-A3452E95CDF2}" name="IR_depth"/>
-    <tableColumn id="4" xr3:uid="{6107AF6F-BD5F-4455-8689-8961BD1B1D91}" name="IR_return"/>
-    <tableColumn id="5" xr3:uid="{EBA676CD-92BC-492D-B8FD-4CBED60D898E}" name="R_Wsol"/>
-    <tableColumn id="6" xr3:uid="{16A31BF5-A17C-4A03-B05A-7AD02CB78F19}" name="Herb_IR"/>
-    <tableColumn id="7" xr3:uid="{A1412EB5-51B5-48AA-A58E-9C0BED75561F}" name="AM_type"/>
-    <tableColumn id="8" xr3:uid="{499FE300-2BEC-4B7C-BB59-5347459C57D1}" name="ENG_type"/>
-    <tableColumn id="9" xr3:uid="{54D2E3C6-EBC9-4B6E-B19B-63CCC28980DC}" name="Ditch_state"/>
-    <tableColumn id="10" xr3:uid="{959C62E0-0199-4284-A76B-CADADB142CB4}" name="Sub_origin"/>
-    <tableColumn id="11" xr3:uid="{CE74B43D-5BD8-43E0-9E03-77A9CC935CBF}" name="Sub_cumul_mm"/>
-    <tableColumn id="12" xr3:uid="{74567E80-C66B-4111-8E69-6225DC145CB4}" name="Drain"/>
-    <tableColumn id="13" xr3:uid="{09ABB7EB-9DAB-448D-92A2-94BB058B6373}" name="other_irrig"/>
-    <tableColumn id="14" xr3:uid="{457FBC2A-7875-4C5B-A8D6-6EAF4F6495DB}" name="prepa_sol"/>
+    <tableColumn id="1" name="Colonne1"/>
+    <tableColumn id="2" name="IR_freq"/>
+    <tableColumn id="3" name="IR_depth"/>
+    <tableColumn id="4" name="IR_return"/>
+    <tableColumn id="5" name="R_Wsol"/>
+    <tableColumn id="6" name="Herb_IR"/>
+    <tableColumn id="7" name="AM_type"/>
+    <tableColumn id="8" name="ENG_type"/>
+    <tableColumn id="9" name="Ditch_state"/>
+    <tableColumn id="10" name="Sub_origin"/>
+    <tableColumn id="11" name="Sub_cumul_mm"/>
+    <tableColumn id="12" name="Drain"/>
+    <tableColumn id="13" name="other_irrig"/>
+    <tableColumn id="14" name="prepa_sol"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{55095F13-C028-4A76-A641-77DE116774B7}" name="Tableau4" displayName="Tableau4" ref="A13:F23" totalsRowShown="0">
-  <autoFilter ref="A13:F23" xr:uid="{D1C11FF8-A2FE-436F-A15C-923CC2AF1794}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A13:F23" totalsRowShown="0">
+  <autoFilter ref="A13:F23"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E5099FC7-8DE2-4405-B1F0-9278D8C6B26E}" name="Modalités signif."/>
-    <tableColumn id="2" xr3:uid="{9998A282-77B6-4E8B-8B47-57BA8417C824}" name="Cla/Mod" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{A1118A12-4430-47F4-BCD3-042BF7889FD4}" name="Mod/Cla" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{FABC0C23-994A-48F9-B802-E61AC307BF25}" name="Global" dataDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{5283440A-F311-4034-B8B9-30954512844D}" name="p.value" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{216ADA2E-C9C5-4CB0-BACF-0F9C4613D10E}" name="v.test" dataDxfId="95"/>
+    <tableColumn id="1" name="Modalités signif."/>
+    <tableColumn id="2" name="Cla/Mod" dataDxfId="99"/>
+    <tableColumn id="3" name="Mod/Cla" dataDxfId="98"/>
+    <tableColumn id="4" name="Global" dataDxfId="97"/>
+    <tableColumn id="5" name="p.value" dataDxfId="96"/>
+    <tableColumn id="6" name="v.test" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B4DA6989-333E-45FE-941B-4290E29B6942}" name="Tableau5" displayName="Tableau5" ref="A1:N13" totalsRowShown="0">
-  <autoFilter ref="A1:N13" xr:uid="{2E1D63AC-51B3-4126-ACB8-E01F2A0358C5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A1:N13" totalsRowShown="0">
+  <autoFilter ref="A1:N13"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{2B2E8E39-032D-405C-B804-C24E5C8DC565}" name="Colonne1"/>
-    <tableColumn id="2" xr3:uid="{E551D445-39D1-499B-AD3F-9AF803F1AC07}" name="IR_freq"/>
-    <tableColumn id="3" xr3:uid="{7779E820-AE05-482B-BEA0-629D678A0737}" name="IR_depth"/>
-    <tableColumn id="4" xr3:uid="{EAD89F3D-01F7-42D6-8F24-64A949B98C53}" name="IR_return"/>
-    <tableColumn id="5" xr3:uid="{3ECF3CB8-EE05-4893-8A05-A3256AB9F42C}" name="R_Wsol"/>
-    <tableColumn id="6" xr3:uid="{ABA680D4-5243-4F27-B354-D9ED58B5691E}" name="Herb_IR"/>
-    <tableColumn id="7" xr3:uid="{1D5CE040-E264-4689-8B52-6A061C0774AC}" name="AM_type"/>
-    <tableColumn id="8" xr3:uid="{25E8FEC8-3C46-48E0-883C-8B9C639D1923}" name="ENG_type"/>
-    <tableColumn id="9" xr3:uid="{20681F1C-CCC8-46CF-854B-1D0B4AABF105}" name="Ditch_state"/>
-    <tableColumn id="10" xr3:uid="{60E2D835-E953-4F6D-8147-E8CBB0673574}" name="Sub_origin"/>
-    <tableColumn id="11" xr3:uid="{3E0C8D56-6E3C-49EC-B4C0-EC0A774BA263}" name="Sub_cumul_mm"/>
-    <tableColumn id="12" xr3:uid="{96A65601-3997-4B2B-BF2F-A422DAEB1EF0}" name="Drain"/>
-    <tableColumn id="13" xr3:uid="{66A13540-993A-4E57-B86B-2D5C663C6FC3}" name="other_irrig"/>
-    <tableColumn id="14" xr3:uid="{F638735E-C6FC-4606-B5D7-24B8EB04284E}" name="prepa_sol"/>
+    <tableColumn id="1" name="Colonne1"/>
+    <tableColumn id="2" name="IR_freq"/>
+    <tableColumn id="3" name="IR_depth"/>
+    <tableColumn id="4" name="IR_return"/>
+    <tableColumn id="5" name="R_Wsol"/>
+    <tableColumn id="6" name="Herb_IR"/>
+    <tableColumn id="7" name="AM_type"/>
+    <tableColumn id="8" name="ENG_type"/>
+    <tableColumn id="9" name="Ditch_state"/>
+    <tableColumn id="10" name="Sub_origin"/>
+    <tableColumn id="11" name="Sub_cumul_mm"/>
+    <tableColumn id="12" name="Drain"/>
+    <tableColumn id="13" name="other_irrig"/>
+    <tableColumn id="14" name="prepa_sol"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{30B9FB18-0D14-4631-8BAF-E2B87F06359C}" name="Tableau6" displayName="Tableau6" ref="A16:F28" totalsRowShown="0">
-  <autoFilter ref="A16:F28" xr:uid="{88480851-CFDF-4526-8AA3-69060AA93EAF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="A16:F28" totalsRowShown="0">
+  <autoFilter ref="A16:F28"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4F76A652-B024-4231-95C6-D811FE713AC6}" name="Modalités signif."/>
-    <tableColumn id="2" xr3:uid="{A783784F-939D-48E4-B42B-D3734B56CB5F}" name="Cla/Mod" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{3027720F-EF85-4D96-951E-7814D4382678}" name="Mod/Cla" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{E28AF4BA-00D7-4222-B7CE-5F9C5A951A2B}" name="Global" dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{2419C9E4-ED1B-480D-B1F5-CB0D3D98AC7E}" name="p.value" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{FB0440DF-34D8-456E-8D25-0BB3CD1E7A09}" name="v.test" dataDxfId="90"/>
+    <tableColumn id="1" name="Modalités signif."/>
+    <tableColumn id="2" name="Cla/Mod" dataDxfId="94"/>
+    <tableColumn id="3" name="Mod/Cla" dataDxfId="93"/>
+    <tableColumn id="4" name="Global" dataDxfId="92"/>
+    <tableColumn id="5" name="p.value" dataDxfId="91"/>
+    <tableColumn id="6" name="v.test" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4B540809-CE27-4B56-B528-1990DADEFD77}" name="Tableau7" displayName="Tableau7" ref="A1:N11" totalsRowShown="0">
-  <autoFilter ref="A1:N11" xr:uid="{B6BBC8E2-75D9-411D-9509-2B4505CC2EED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau7" displayName="Tableau7" ref="A1:N11" totalsRowShown="0">
+  <autoFilter ref="A1:N11"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{549F4A05-E975-471F-B602-48AA1F24F44D}" name="Colonne1"/>
-    <tableColumn id="2" xr3:uid="{6DC0989C-0922-42F9-856A-02BC73199721}" name="IR_freq"/>
-    <tableColumn id="3" xr3:uid="{D5390565-E8FD-4562-A2A9-DA207B3C729D}" name="IR_depth"/>
-    <tableColumn id="4" xr3:uid="{1A8EB184-15C7-4F21-81B0-FE264FFF26F0}" name="IR_return"/>
-    <tableColumn id="5" xr3:uid="{B89FD415-0F15-42A8-BA20-42B003579441}" name="R_Wsol"/>
-    <tableColumn id="6" xr3:uid="{9441A39D-7BED-4CF0-901F-1054B4A1E046}" name="Herb_IR"/>
-    <tableColumn id="7" xr3:uid="{E4C3A1C1-152F-4E65-A6A7-23758901E2D6}" name="AM_type"/>
-    <tableColumn id="8" xr3:uid="{8730C1AB-34A7-4B6B-91D2-20F93E062FC6}" name="ENG_type"/>
-    <tableColumn id="9" xr3:uid="{A62C4BB9-CB61-4FBA-B384-895F161794DA}" name="Ditch_state"/>
-    <tableColumn id="10" xr3:uid="{DFF6653D-071A-421D-987C-5EC9296195A8}" name="Sub_origin"/>
-    <tableColumn id="11" xr3:uid="{059F6334-0C13-404E-A581-092FB9E1A195}" name="Sub_cumul_mm"/>
-    <tableColumn id="12" xr3:uid="{4F128CDD-0362-4515-9D10-7C7F48E687AC}" name="Drain"/>
-    <tableColumn id="13" xr3:uid="{B75B3E75-EEE5-406C-92C9-9898D18B131A}" name="other_irrig"/>
-    <tableColumn id="14" xr3:uid="{B8A98AD8-F5DA-454E-805C-7DFE7EFAB395}" name="prepa_sol"/>
+    <tableColumn id="1" name="Colonne1"/>
+    <tableColumn id="2" name="IR_freq"/>
+    <tableColumn id="3" name="IR_depth"/>
+    <tableColumn id="4" name="IR_return"/>
+    <tableColumn id="5" name="R_Wsol"/>
+    <tableColumn id="6" name="Herb_IR"/>
+    <tableColumn id="7" name="AM_type"/>
+    <tableColumn id="8" name="ENG_type"/>
+    <tableColumn id="9" name="Ditch_state"/>
+    <tableColumn id="10" name="Sub_origin"/>
+    <tableColumn id="11" name="Sub_cumul_mm"/>
+    <tableColumn id="12" name="Drain"/>
+    <tableColumn id="13" name="other_irrig"/>
+    <tableColumn id="14" name="prepa_sol"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F8F319B2-92AA-4DD6-8B68-285809803A2E}" name="Tableau8" displayName="Tableau8" ref="A14:F23" totalsRowShown="0">
-  <autoFilter ref="A14:F23" xr:uid="{A6539D42-712C-4C6F-B2BE-05FA60851DCE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tableau8" displayName="Tableau8" ref="A14:F23" totalsRowShown="0">
+  <autoFilter ref="A14:F23"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3F069E01-2F86-456C-AE10-B9E08E83F767}" name="Colonne1"/>
-    <tableColumn id="2" xr3:uid="{83F13379-043C-4986-9B61-9DD7CFF81F5F}" name="Cla/Mod" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{236321CB-0260-4F2C-B9BF-181F288EEFE0}" name="Mod/Cla" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{0B90CFFB-996C-4CC5-A16C-E56B4A1E1124}" name="Global" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{ED6C131D-A508-4DE4-80F0-E2CC00F0D2B6}" name="p.value" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{CED4395D-DB04-44DA-B060-9EDED058BA60}" name="v.test" dataDxfId="85"/>
+    <tableColumn id="1" name="Colonne1"/>
+    <tableColumn id="2" name="Cla/Mod" dataDxfId="89"/>
+    <tableColumn id="3" name="Mod/Cla" dataDxfId="88"/>
+    <tableColumn id="4" name="Global" dataDxfId="87"/>
+    <tableColumn id="5" name="p.value" dataDxfId="86"/>
+    <tableColumn id="6" name="v.test" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A1156310-B184-46D0-A7A8-DBDABF7AB580}" name="Tableau9" displayName="Tableau9" ref="A1:O5" totalsRowShown="0">
-  <autoFilter ref="A1:O5" xr:uid="{9791AB99-287A-44C9-AC76-7193917557A4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tableau9" displayName="Tableau9" ref="A1:O5" totalsRowShown="0">
+  <autoFilter ref="A1:O5"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{5EFCD00A-6DA8-45D7-8390-C69D6B6E51D5}" name="Colonne1"/>
-    <tableColumn id="2" xr3:uid="{1C439D08-44E3-44E6-ADBF-84A95ED17A16}" name="IR_freq"/>
-    <tableColumn id="3" xr3:uid="{8FBDB312-4E32-4534-B6DA-18A19BE1E638}" name="IR_superficie"/>
-    <tableColumn id="4" xr3:uid="{71ACE189-DD01-4A35-8A63-721FC026B585}" name="IR_depth"/>
-    <tableColumn id="5" xr3:uid="{F374844E-412C-4607-846A-01B766FDF33C}" name="IR_return"/>
-    <tableColumn id="6" xr3:uid="{C7DF8301-FB74-41C9-9878-960C951F93C4}" name="R_Wsol"/>
-    <tableColumn id="7" xr3:uid="{3A41B7AF-3F6F-46A8-901A-961E50C42BD5}" name="Herb_IR"/>
-    <tableColumn id="8" xr3:uid="{90CF366E-E2A4-4832-8627-46EF7DCE4B19}" name="AM_type"/>
-    <tableColumn id="9" xr3:uid="{800145A8-5E27-47AD-A5F4-EED19B8B5DEF}" name="ENG_type"/>
-    <tableColumn id="10" xr3:uid="{F89C09AA-63EC-4FA8-922A-CE7A74B480E0}" name="Ditch_state"/>
-    <tableColumn id="11" xr3:uid="{DBAD20BD-07C3-41D9-9B26-E55AC763C326}" name="Sub_origin"/>
-    <tableColumn id="12" xr3:uid="{CBFC508F-D268-43CF-BA0F-5C23DD2F6AC0}" name="Sub_cumul_mm"/>
-    <tableColumn id="13" xr3:uid="{EC911839-B745-4156-8AEA-858AA7B64F9B}" name="Drain"/>
-    <tableColumn id="14" xr3:uid="{7D6BA027-F09F-4EBA-86BA-00B853DA9876}" name="other_irrig"/>
-    <tableColumn id="15" xr3:uid="{D7153558-EBAD-4F74-8538-730B98773526}" name="prepa_sol"/>
+    <tableColumn id="1" name="Colonne1"/>
+    <tableColumn id="2" name="IR_freq"/>
+    <tableColumn id="3" name="IR_superficie"/>
+    <tableColumn id="4" name="IR_depth"/>
+    <tableColumn id="5" name="IR_return"/>
+    <tableColumn id="6" name="R_Wsol"/>
+    <tableColumn id="7" name="Herb_IR"/>
+    <tableColumn id="8" name="AM_type"/>
+    <tableColumn id="9" name="ENG_type"/>
+    <tableColumn id="10" name="Ditch_state"/>
+    <tableColumn id="11" name="Sub_origin"/>
+    <tableColumn id="12" name="Sub_cumul_mm"/>
+    <tableColumn id="13" name="Drain"/>
+    <tableColumn id="14" name="other_irrig"/>
+    <tableColumn id="15" name="prepa_sol"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8048,24 +7991,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" customWidth="1"/>
+    <col min="11" max="11" width="16.6328125" customWidth="1"/>
+    <col min="13" max="13" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -8109,7 +8052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -8153,7 +8096,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -8197,7 +8140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -8241,7 +8184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -8285,7 +8228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -8329,7 +8272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -8373,7 +8316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -8417,7 +8360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -8461,7 +8404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -8505,7 +8448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -8549,7 +8492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>134</v>
       </c>
@@ -8569,7 +8512,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -8589,7 +8532,7 @@
         <v>5.5501441781512604</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -8609,7 +8552,7 @@
         <v>4.9138889100326697</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -8629,7 +8572,7 @@
         <v>2.2680626378338</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -8649,7 +8592,7 @@
         <v>2.1084962849592199</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -8669,7 +8612,7 @@
         <v>-2.0583003213267399</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -8689,7 +8632,7 @@
         <v>-2.0583003213267399</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -8709,7 +8652,7 @@
         <v>-2.1084962849592199</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -8729,7 +8672,7 @@
         <v>-2.2397352723092698</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -8749,7 +8692,7 @@
         <v>-2.36837535189628</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -8769,7 +8712,7 @@
         <v>-3.0935777395331798</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -8800,23 +8743,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" customWidth="1"/>
+    <col min="11" max="11" width="16.6328125" customWidth="1"/>
+    <col min="13" max="13" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -8860,7 +8803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -8904,7 +8847,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -8948,7 +8891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -8992,7 +8935,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -9036,7 +8979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -9080,7 +9023,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -9124,7 +9067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -9168,7 +9111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -9212,7 +9155,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -9256,7 +9199,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>132</v>
       </c>
@@ -9264,7 +9207,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -9284,7 +9227,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -9304,7 +9247,7 @@
         <v>3.8103359818409799</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -9324,7 +9267,7 @@
         <v>3.7638863676872698</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -9344,7 +9287,7 @@
         <v>3.7626313434488301</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -9364,7 +9307,7 @@
         <v>3.1905940322748099</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -9384,7 +9327,7 @@
         <v>2.89996340677104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -9404,7 +9347,7 @@
         <v>2.7369061830287298</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -9424,7 +9367,7 @@
         <v>-2.1891458720119399</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -9444,7 +9387,7 @@
         <v>-2.4224804734891698</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -9464,7 +9407,7 @@
         <v>-2.89996340677104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -9495,23 +9438,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.90625" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" customWidth="1"/>
+    <col min="11" max="11" width="16.6328125" customWidth="1"/>
+    <col min="13" max="13" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -9555,7 +9498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -9599,7 +9542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -9643,7 +9586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -9687,7 +9630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -9731,7 +9674,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -9775,7 +9718,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -9819,7 +9762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -9863,7 +9806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -9907,7 +9850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -9951,7 +9894,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -9995,7 +9938,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -10039,7 +9982,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -10083,7 +10026,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>134</v>
       </c>
@@ -10103,7 +10046,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -10123,7 +10066,7 @@
         <v>4.9394519302809501</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -10143,7 +10086,7 @@
         <v>3.9388653319621598</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -10163,7 +10106,7 @@
         <v>2.7750632879064101</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -10183,7 +10126,7 @@
         <v>2.4300938911393999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -10203,7 +10146,7 @@
         <v>2.36837535189628</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -10223,7 +10166,7 @@
         <v>-2.1880525505625399</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -10243,7 +10186,7 @@
         <v>-2.1891458720119399</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -10263,7 +10206,7 @@
         <v>-2.36837535189628</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -10283,7 +10226,7 @@
         <v>-2.36837535189628</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -10303,7 +10246,7 @@
         <v>-2.36837535189628</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -10323,7 +10266,7 @@
         <v>-2.54427849398843</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -10354,23 +10297,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" customWidth="1"/>
+    <col min="11" max="11" width="16.6328125" customWidth="1"/>
+    <col min="13" max="13" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -10414,7 +10357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -10458,7 +10401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -10502,7 +10445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -10546,7 +10489,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -10590,7 +10533,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -10634,7 +10577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -10678,7 +10621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -10722,7 +10665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -10766,7 +10709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -10810,7 +10753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -10854,7 +10797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -10874,7 +10817,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -10894,7 +10837,7 @@
         <v>6.1276292100877896</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -10914,7 +10857,7 @@
         <v>6.1276292100877896</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -10934,7 +10877,7 @@
         <v>2.1924385025777799</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -10954,7 +10897,7 @@
         <v>1.975989322485</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -10974,7 +10917,7 @@
         <v>-1.975989322485</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>120</v>
       </c>
@@ -10994,7 +10937,7 @@
         <v>-2.1924385025777799</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -11014,7 +10957,7 @@
         <v>-2.2144243791950902</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>107</v>
       </c>
@@ -11034,7 +10977,7 @@
         <v>-3.12977470254586</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -11065,24 +11008,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
+    <col min="10" max="10" width="12.36328125" customWidth="1"/>
+    <col min="11" max="11" width="11.90625" customWidth="1"/>
+    <col min="12" max="12" width="16.6328125" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -11129,7 +11072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -11176,7 +11119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -11223,7 +11166,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -11270,7 +11213,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -11317,7 +11260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>134</v>
       </c>
@@ -11337,7 +11280,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -11357,7 +11300,7 @@
         <v>4.5026342038131801</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -11377,7 +11320,7 @@
         <v>3.1927101865501299</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -11397,7 +11340,7 @@
         <v>2.74448426086242</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -11417,7 +11360,7 @@
         <v>2.74448426086242</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -11437,7 +11380,7 @@
         <v>2.4361108110969498</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -11457,7 +11400,7 @@
         <v>1.9677604460576099</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -11477,7 +11420,7 @@
         <v>-2.0520054455733399</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -11497,7 +11440,7 @@
         <v>-2.71049203304855</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>126</v>
       </c>
@@ -11528,16 +11471,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB0560D-9694-4161-9F12-AB060BCB0F6D}">
-  <dimension ref="A1:N50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N50" sqref="A1:N50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>135</v>
       </c>
@@ -11581,7 +11524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
@@ -11625,7 +11568,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>73</v>
       </c>
@@ -11653,7 +11596,7 @@
       <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>74</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -11669,7 +11612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>111</v>
       </c>
@@ -11713,7 +11656,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
@@ -11757,7 +11700,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>51</v>
       </c>
@@ -11801,7 +11744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
@@ -11845,7 +11788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
@@ -11889,7 +11832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>117</v>
       </c>
@@ -11933,7 +11876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>55</v>
       </c>
@@ -11976,8 +11919,9 @@
       <c r="N10" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>106</v>
       </c>
@@ -12017,11 +11961,11 @@
       <c r="M11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>136</v>
       </c>
@@ -12065,7 +12009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>75</v>
       </c>
@@ -12081,7 +12025,7 @@
       <c r="E13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -12096,7 +12040,7 @@
       <c r="J13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -12105,11 +12049,11 @@
       <c r="M13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>97</v>
       </c>
@@ -12125,7 +12069,7 @@
       <c r="E14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -12140,7 +12084,7 @@
       <c r="J14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="4" t="s">
@@ -12149,11 +12093,11 @@
       <c r="M14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>110</v>
       </c>
@@ -12184,20 +12128,20 @@
       <c r="J15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>112</v>
       </c>
@@ -12219,10 +12163,10 @@
       <c r="G16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -12231,7 +12175,7 @@
       <c r="K16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -12241,7 +12185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>83</v>
       </c>
@@ -12266,7 +12210,7 @@
       <c r="H17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="4" t="s">
@@ -12285,7 +12229,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>84</v>
       </c>
@@ -12310,7 +12254,7 @@
       <c r="H18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -12329,7 +12273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>113</v>
       </c>
@@ -12354,7 +12298,7 @@
       <c r="H19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J19" s="4" t="s">
@@ -12373,7 +12317,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>127</v>
       </c>
@@ -12392,10 +12336,10 @@
       <c r="F20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -12410,14 +12354,15 @@
       <c r="L20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>128</v>
       </c>
@@ -12436,10 +12381,10 @@
       <c r="F21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -12454,14 +12399,15 @@
       <c r="L21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N21" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>137</v>
       </c>
@@ -12505,7 +12451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>94</v>
       </c>
@@ -12549,7 +12495,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>95</v>
       </c>
@@ -12593,7 +12539,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>96</v>
       </c>
@@ -12637,7 +12583,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>98</v>
       </c>
@@ -12681,7 +12627,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>109</v>
       </c>
@@ -12725,7 +12671,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>100</v>
       </c>
@@ -12769,7 +12715,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>80</v>
       </c>
@@ -12813,7 +12759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>114</v>
       </c>
@@ -12857,7 +12803,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>115</v>
       </c>
@@ -12901,7 +12847,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>85</v>
       </c>
@@ -12945,7 +12891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>86</v>
       </c>
@@ -12989,7 +12935,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>129</v>
       </c>
@@ -13033,7 +12979,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>138</v>
       </c>
@@ -13077,7 +13023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>77</v>
       </c>
@@ -13093,7 +13039,7 @@
       <c r="E36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -13121,7 +13067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -13131,13 +13077,13 @@
       <c r="C37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G37" s="4" t="s">
@@ -13158,21 +13104,21 @@
       <c r="L37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="9" t="s">
         <v>34</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -13209,7 +13155,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>82</v>
       </c>
@@ -13246,14 +13192,15 @@
       <c r="L39" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="M39" s="9" t="s">
         <v>34</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>101</v>
       </c>
@@ -13290,14 +13237,14 @@
       <c r="L40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="M40" s="9" t="s">
         <v>34</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>116</v>
       </c>
@@ -13341,7 +13288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>44</v>
       </c>
@@ -13385,7 +13332,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>47</v>
       </c>
@@ -13422,14 +13369,14 @@
       <c r="L43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="M43" s="9" t="s">
         <v>34</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>118</v>
       </c>
@@ -13473,7 +13420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>130</v>
       </c>
@@ -13510,14 +13457,14 @@
       <c r="L45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="M45" s="9" t="s">
         <v>34</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>139</v>
       </c>
@@ -13561,7 +13508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>14</v>
       </c>
@@ -13605,7 +13552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>102</v>
       </c>
@@ -13649,7 +13596,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>103</v>
       </c>
@@ -13693,7 +13640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>105</v>
       </c>

--- a/DOCUMENTS-20221017T082336Z-001/DOCUMENTS/Données Thèse/typologie 5 groupes.xlsx
+++ b/DOCUMENTS-20221017T082336Z-001/DOCUMENTS/Données Thèse/typologie 5 groupes.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="141">
   <si>
     <t>IR_freq</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>GROUPE 5</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,6 +614,12 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -979,7 +988,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -988,10 +997,11 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1037,7 +1047,31 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="107">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -7417,126 +7451,128 @@
   <autoFilter ref="A9:F18"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Modalités signif."/>
-    <tableColumn id="2" name="Cla/Mod" dataDxfId="84"/>
-    <tableColumn id="3" name="Mod/Cla" dataDxfId="83"/>
-    <tableColumn id="4" name="Global" dataDxfId="82"/>
-    <tableColumn id="5" name="p.value" dataDxfId="81"/>
-    <tableColumn id="6" name="v.test" dataDxfId="80"/>
+    <tableColumn id="2" name="Cla/Mod" dataDxfId="86"/>
+    <tableColumn id="3" name="Mod/Cla" dataDxfId="85"/>
+    <tableColumn id="4" name="Global" dataDxfId="84"/>
+    <tableColumn id="5" name="p.value" dataDxfId="83"/>
+    <tableColumn id="6" name="v.test" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tableau112" displayName="Tableau112" ref="A1:N11" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
-  <autoFilter ref="A1:N11"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="GROUPE 1" dataDxfId="77"/>
-    <tableColumn id="2" name="IR_freq" dataDxfId="76"/>
-    <tableColumn id="3" name="IR_depth" dataDxfId="75"/>
-    <tableColumn id="4" name="IR_return" dataDxfId="74"/>
-    <tableColumn id="5" name="R_Wsol" dataDxfId="73"/>
-    <tableColumn id="6" name="Herb_IR" dataDxfId="72"/>
-    <tableColumn id="7" name="AM_type" dataDxfId="71"/>
-    <tableColumn id="8" name="ENG_type" dataDxfId="70"/>
-    <tableColumn id="9" name="Ditch_state" dataDxfId="69"/>
-    <tableColumn id="10" name="Sub_origin" dataDxfId="68"/>
-    <tableColumn id="11" name="Sub_cumul_mm" dataDxfId="67"/>
-    <tableColumn id="12" name="Drain" dataDxfId="66"/>
-    <tableColumn id="13" name="other_irrig" dataDxfId="65"/>
-    <tableColumn id="14" name="prepa_sol" dataDxfId="64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tableau112" displayName="Tableau112" ref="A1:O11" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="A1:O11"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="GROUPE 1" dataDxfId="79"/>
+    <tableColumn id="2" name="IR_freq" dataDxfId="78"/>
+    <tableColumn id="3" name="IR_depth" dataDxfId="77"/>
+    <tableColumn id="4" name="IR_return" dataDxfId="76"/>
+    <tableColumn id="5" name="R_Wsol" dataDxfId="75"/>
+    <tableColumn id="6" name="Herb_IR" dataDxfId="74"/>
+    <tableColumn id="7" name="AM_type" dataDxfId="73"/>
+    <tableColumn id="8" name="ENG_type" dataDxfId="72"/>
+    <tableColumn id="9" name="Ditch_state" dataDxfId="71"/>
+    <tableColumn id="10" name="Sub_origin" dataDxfId="70"/>
+    <tableColumn id="11" name="Sub_cumul_mm" dataDxfId="69"/>
+    <tableColumn id="12" name="Drain" dataDxfId="68"/>
+    <tableColumn id="13" name="other_irrig" dataDxfId="67"/>
+    <tableColumn id="14" name="prepa_sol" dataDxfId="66"/>
+    <tableColumn id="15" name="Colonne1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tableau313" displayName="Tableau313" ref="A12:N21" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <autoFilter ref="A12:N21"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="GROUPE 2" dataDxfId="61"/>
-    <tableColumn id="2" name="IR_freq" dataDxfId="60"/>
-    <tableColumn id="3" name="IR_depth" dataDxfId="59"/>
-    <tableColumn id="4" name="IR_return" dataDxfId="58"/>
-    <tableColumn id="5" name="R_Wsol" dataDxfId="57"/>
-    <tableColumn id="6" name="Herb_IR" dataDxfId="56"/>
-    <tableColumn id="7" name="AM_type" dataDxfId="55"/>
-    <tableColumn id="8" name="ENG_type" dataDxfId="54"/>
-    <tableColumn id="9" name="Ditch_state" dataDxfId="53"/>
-    <tableColumn id="10" name="Sub_origin" dataDxfId="52"/>
-    <tableColumn id="11" name="Sub_cumul_mm" dataDxfId="51"/>
-    <tableColumn id="12" name="Drain" dataDxfId="50"/>
-    <tableColumn id="13" name="other_irrig" dataDxfId="49"/>
-    <tableColumn id="14" name="prepa_sol" dataDxfId="48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tableau313" displayName="Tableau313" ref="A12:O21" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+  <autoFilter ref="A12:O21"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="GROUPE 2" dataDxfId="63"/>
+    <tableColumn id="2" name="IR_freq" dataDxfId="62"/>
+    <tableColumn id="3" name="IR_depth" dataDxfId="61"/>
+    <tableColumn id="4" name="IR_return" dataDxfId="60"/>
+    <tableColumn id="5" name="R_Wsol" dataDxfId="59"/>
+    <tableColumn id="6" name="Herb_IR" dataDxfId="58"/>
+    <tableColumn id="7" name="AM_type" dataDxfId="57"/>
+    <tableColumn id="8" name="ENG_type" dataDxfId="56"/>
+    <tableColumn id="9" name="Ditch_state" dataDxfId="55"/>
+    <tableColumn id="10" name="Sub_origin" dataDxfId="54"/>
+    <tableColumn id="11" name="Sub_cumul_mm" dataDxfId="53"/>
+    <tableColumn id="12" name="Drain" dataDxfId="52"/>
+    <tableColumn id="13" name="other_irrig" dataDxfId="51"/>
+    <tableColumn id="14" name="prepa_sol" dataDxfId="50"/>
+    <tableColumn id="15" name="Colonne1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tableau514" displayName="Tableau514" ref="A22:N34" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tableau514" displayName="Tableau514" ref="A22:N34" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="A22:N34"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="GROUPE 3" dataDxfId="45"/>
-    <tableColumn id="2" name="IR_freq" dataDxfId="44"/>
-    <tableColumn id="3" name="IR_depth" dataDxfId="43"/>
-    <tableColumn id="4" name="IR_return" dataDxfId="42"/>
-    <tableColumn id="5" name="R_Wsol" dataDxfId="41"/>
-    <tableColumn id="6" name="Herb_IR" dataDxfId="40"/>
-    <tableColumn id="7" name="AM_type" dataDxfId="39"/>
-    <tableColumn id="8" name="ENG_type" dataDxfId="38"/>
-    <tableColumn id="9" name="Ditch_state" dataDxfId="37"/>
-    <tableColumn id="10" name="Sub_origin" dataDxfId="36"/>
-    <tableColumn id="11" name="Sub_cumul_mm" dataDxfId="35"/>
-    <tableColumn id="12" name="Drain" dataDxfId="34"/>
-    <tableColumn id="13" name="other_irrig" dataDxfId="33"/>
-    <tableColumn id="14" name="prepa_sol" dataDxfId="32"/>
+    <tableColumn id="1" name="GROUPE 3" dataDxfId="47"/>
+    <tableColumn id="2" name="IR_freq" dataDxfId="46"/>
+    <tableColumn id="3" name="IR_depth" dataDxfId="45"/>
+    <tableColumn id="4" name="IR_return" dataDxfId="44"/>
+    <tableColumn id="5" name="R_Wsol" dataDxfId="43"/>
+    <tableColumn id="6" name="Herb_IR" dataDxfId="42"/>
+    <tableColumn id="7" name="AM_type" dataDxfId="41"/>
+    <tableColumn id="8" name="ENG_type" dataDxfId="40"/>
+    <tableColumn id="9" name="Ditch_state" dataDxfId="39"/>
+    <tableColumn id="10" name="Sub_origin" dataDxfId="38"/>
+    <tableColumn id="11" name="Sub_cumul_mm" dataDxfId="37"/>
+    <tableColumn id="12" name="Drain" dataDxfId="36"/>
+    <tableColumn id="13" name="other_irrig" dataDxfId="35"/>
+    <tableColumn id="14" name="prepa_sol" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tableau715" displayName="Tableau715" ref="A35:N45" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tableau715" displayName="Tableau715" ref="A35:N45" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A35:N45"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="GROUPE 4" dataDxfId="29"/>
-    <tableColumn id="2" name="IR_freq" dataDxfId="28"/>
-    <tableColumn id="3" name="IR_depth" dataDxfId="27"/>
-    <tableColumn id="4" name="IR_return" dataDxfId="26"/>
-    <tableColumn id="5" name="R_Wsol" dataDxfId="25"/>
-    <tableColumn id="6" name="Herb_IR" dataDxfId="24"/>
-    <tableColumn id="7" name="AM_type" dataDxfId="23"/>
-    <tableColumn id="8" name="ENG_type" dataDxfId="22"/>
-    <tableColumn id="9" name="Ditch_state" dataDxfId="21"/>
-    <tableColumn id="10" name="Sub_origin" dataDxfId="20"/>
-    <tableColumn id="11" name="Sub_cumul_mm" dataDxfId="19"/>
-    <tableColumn id="12" name="Drain" dataDxfId="18"/>
-    <tableColumn id="13" name="other_irrig" dataDxfId="17"/>
-    <tableColumn id="14" name="prepa_sol" dataDxfId="16"/>
+    <tableColumn id="1" name="GROUPE 4" dataDxfId="31"/>
+    <tableColumn id="2" name="IR_freq" dataDxfId="30"/>
+    <tableColumn id="3" name="IR_depth" dataDxfId="29"/>
+    <tableColumn id="4" name="IR_return" dataDxfId="28"/>
+    <tableColumn id="5" name="R_Wsol" dataDxfId="27"/>
+    <tableColumn id="6" name="Herb_IR" dataDxfId="26"/>
+    <tableColumn id="7" name="AM_type" dataDxfId="25"/>
+    <tableColumn id="8" name="ENG_type" dataDxfId="24"/>
+    <tableColumn id="9" name="Ditch_state" dataDxfId="23"/>
+    <tableColumn id="10" name="Sub_origin" dataDxfId="22"/>
+    <tableColumn id="11" name="Sub_cumul_mm" dataDxfId="21"/>
+    <tableColumn id="12" name="Drain" dataDxfId="20"/>
+    <tableColumn id="13" name="other_irrig" dataDxfId="19"/>
+    <tableColumn id="14" name="prepa_sol" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tableau916" displayName="Tableau916" ref="A46:N50" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tableau916" displayName="Tableau916" ref="A46:N50" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A46:N50"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="GROUPE 5" dataDxfId="13"/>
-    <tableColumn id="2" name="IR_freq" dataDxfId="12"/>
-    <tableColumn id="4" name="IR_depth" dataDxfId="11"/>
-    <tableColumn id="5" name="IR_return" dataDxfId="10"/>
-    <tableColumn id="6" name="R_Wsol" dataDxfId="9"/>
-    <tableColumn id="7" name="Herb_IR" dataDxfId="8"/>
-    <tableColumn id="8" name="AM_type" dataDxfId="7"/>
-    <tableColumn id="9" name="ENG_type" dataDxfId="6"/>
-    <tableColumn id="10" name="Ditch_state" dataDxfId="5"/>
-    <tableColumn id="11" name="Sub_origin" dataDxfId="4"/>
-    <tableColumn id="12" name="Sub_cumul_mm" dataDxfId="3"/>
-    <tableColumn id="13" name="Drain" dataDxfId="2"/>
-    <tableColumn id="14" name="other_irrig" dataDxfId="1"/>
-    <tableColumn id="15" name="prepa_sol" dataDxfId="0"/>
+    <tableColumn id="1" name="GROUPE 5" dataDxfId="15"/>
+    <tableColumn id="2" name="IR_freq" dataDxfId="14"/>
+    <tableColumn id="4" name="IR_depth" dataDxfId="13"/>
+    <tableColumn id="5" name="IR_return" dataDxfId="12"/>
+    <tableColumn id="6" name="R_Wsol" dataDxfId="11"/>
+    <tableColumn id="7" name="Herb_IR" dataDxfId="10"/>
+    <tableColumn id="8" name="AM_type" dataDxfId="9"/>
+    <tableColumn id="9" name="ENG_type" dataDxfId="8"/>
+    <tableColumn id="10" name="Ditch_state" dataDxfId="7"/>
+    <tableColumn id="11" name="Sub_origin" dataDxfId="6"/>
+    <tableColumn id="12" name="Sub_cumul_mm" dataDxfId="5"/>
+    <tableColumn id="13" name="Drain" dataDxfId="4"/>
+    <tableColumn id="14" name="other_irrig" dataDxfId="3"/>
+    <tableColumn id="15" name="prepa_sol" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7547,11 +7583,11 @@
   <autoFilter ref="A14:F25"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Modalités signif."/>
-    <tableColumn id="2" name="Cla/Mod" dataDxfId="104"/>
-    <tableColumn id="3" name="Mod/Cla" dataDxfId="103"/>
-    <tableColumn id="4" name="Global" dataDxfId="102"/>
-    <tableColumn id="5" name="p.value" dataDxfId="101"/>
-    <tableColumn id="6" name="v.test" dataDxfId="100"/>
+    <tableColumn id="2" name="Cla/Mod" dataDxfId="106"/>
+    <tableColumn id="3" name="Mod/Cla" dataDxfId="105"/>
+    <tableColumn id="4" name="Global" dataDxfId="104"/>
+    <tableColumn id="5" name="p.value" dataDxfId="103"/>
+    <tableColumn id="6" name="v.test" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7585,11 +7621,11 @@
   <autoFilter ref="A13:F23"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Modalités signif."/>
-    <tableColumn id="2" name="Cla/Mod" dataDxfId="99"/>
-    <tableColumn id="3" name="Mod/Cla" dataDxfId="98"/>
-    <tableColumn id="4" name="Global" dataDxfId="97"/>
-    <tableColumn id="5" name="p.value" dataDxfId="96"/>
-    <tableColumn id="6" name="v.test" dataDxfId="95"/>
+    <tableColumn id="2" name="Cla/Mod" dataDxfId="101"/>
+    <tableColumn id="3" name="Mod/Cla" dataDxfId="100"/>
+    <tableColumn id="4" name="Global" dataDxfId="99"/>
+    <tableColumn id="5" name="p.value" dataDxfId="98"/>
+    <tableColumn id="6" name="v.test" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7623,11 +7659,11 @@
   <autoFilter ref="A16:F28"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Modalités signif."/>
-    <tableColumn id="2" name="Cla/Mod" dataDxfId="94"/>
-    <tableColumn id="3" name="Mod/Cla" dataDxfId="93"/>
-    <tableColumn id="4" name="Global" dataDxfId="92"/>
-    <tableColumn id="5" name="p.value" dataDxfId="91"/>
-    <tableColumn id="6" name="v.test" dataDxfId="90"/>
+    <tableColumn id="2" name="Cla/Mod" dataDxfId="96"/>
+    <tableColumn id="3" name="Mod/Cla" dataDxfId="95"/>
+    <tableColumn id="4" name="Global" dataDxfId="94"/>
+    <tableColumn id="5" name="p.value" dataDxfId="93"/>
+    <tableColumn id="6" name="v.test" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7661,11 +7697,11 @@
   <autoFilter ref="A14:F23"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Colonne1"/>
-    <tableColumn id="2" name="Cla/Mod" dataDxfId="89"/>
-    <tableColumn id="3" name="Mod/Cla" dataDxfId="88"/>
-    <tableColumn id="4" name="Global" dataDxfId="87"/>
-    <tableColumn id="5" name="p.value" dataDxfId="86"/>
-    <tableColumn id="6" name="v.test" dataDxfId="85"/>
+    <tableColumn id="2" name="Cla/Mod" dataDxfId="91"/>
+    <tableColumn id="3" name="Mod/Cla" dataDxfId="90"/>
+    <tableColumn id="4" name="Global" dataDxfId="89"/>
+    <tableColumn id="5" name="p.value" dataDxfId="88"/>
+    <tableColumn id="6" name="v.test" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11475,7 +11511,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11523,6 +11559,9 @@
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="10" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -11567,6 +11606,7 @@
       <c r="N2" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -11611,6 +11651,7 @@
       <c r="N3" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -11655,6 +11696,7 @@
       <c r="N4" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -11699,6 +11741,7 @@
       <c r="N5" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
@@ -11743,6 +11786,7 @@
       <c r="N6" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
@@ -11787,6 +11831,9 @@
       <c r="N7" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="O7" s="10" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
@@ -11831,6 +11878,7 @@
       <c r="N8" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
@@ -11875,6 +11923,7 @@
       <c r="N9" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
@@ -11919,7 +11968,7 @@
       <c r="N10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="11"/>
+      <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
@@ -11964,6 +12013,7 @@
       <c r="N11" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
@@ -12008,6 +12058,9 @@
       <c r="N12" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="O12" s="10" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
@@ -12052,6 +12105,7 @@
       <c r="N13" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -12096,6 +12150,7 @@
       <c r="N14" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -12140,6 +12195,9 @@
       <c r="N15" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="O15" s="10" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -12184,6 +12242,7 @@
       <c r="N16" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="O16" s="10"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
@@ -12228,6 +12287,7 @@
       <c r="N17" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="O17" s="10"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
@@ -12272,6 +12332,7 @@
       <c r="N18" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
@@ -12316,6 +12377,7 @@
       <c r="N19" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="O19" s="10"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
@@ -12360,7 +12422,9 @@
       <c r="N20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O20" s="8"/>
+      <c r="O20" s="11" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
@@ -12405,7 +12469,7 @@
       <c r="N21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O21" s="8"/>
+      <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
@@ -13039,7 +13103,7 @@
       <c r="E36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -13077,13 +13141,13 @@
       <c r="C37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>37</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G37" s="4" t="s">
@@ -13104,7 +13168,7 @@
       <c r="L37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="M37" s="8" t="s">
         <v>34</v>
       </c>
       <c r="N37" s="4" t="s">
@@ -13118,7 +13182,7 @@
       <c r="B38" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -13192,13 +13256,13 @@
       <c r="L39" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M39" s="9" t="s">
+      <c r="M39" s="8" t="s">
         <v>34</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O39" s="10"/>
+      <c r="O39" s="9"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
@@ -13237,7 +13301,7 @@
       <c r="L40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M40" s="9" t="s">
+      <c r="M40" s="8" t="s">
         <v>34</v>
       </c>
       <c r="N40" s="4" t="s">
@@ -13369,7 +13433,7 @@
       <c r="L43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M43" s="9" t="s">
+      <c r="M43" s="8" t="s">
         <v>34</v>
       </c>
       <c r="N43" s="4" t="s">
@@ -13457,7 +13521,7 @@
       <c r="L45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M45" s="9" t="s">
+      <c r="M45" s="8" t="s">
         <v>34</v>
       </c>
       <c r="N45" s="4" t="s">
